--- a/DBD 분석/맵 분석/3. 콜드윈드 농장(★)/3. 썩은 들판(★)/영상분석자료/모멘트 시트 및 정리/아빠킹 5,6월 영상 카테고리.xlsx
+++ b/DBD 분석/맵 분석/3. 콜드윈드 농장(★)/3. 썩은 들판(★)/영상분석자료/모멘트 시트 및 정리/아빠킹 5,6월 영상 카테고리.xlsx
@@ -5,14 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bumizi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bumizi\Desktop\Study\Thesis\DBD 분석\맵 분석\3. 콜드윈드 농장(★)\3. 썩은 들판(★)\영상분석자료\모멘트 시트 및 정리\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9585" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="6-1" sheetId="2" r:id="rId2"/>
+    <sheet name="6-2" sheetId="3" r:id="rId3"/>
+    <sheet name="5-1" sheetId="4" r:id="rId4"/>
+    <sheet name="5-2" sheetId="5" r:id="rId5"/>
+    <sheet name="5-3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="193">
   <si>
     <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +332,462 @@
   </si>
   <si>
     <t>521,129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:35~6:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모멘트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼포먼스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전략</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전략</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔터테인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:20~1:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:25~2:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:35~4:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:30~5:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:00~5:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:00~7:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:00~8:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:05~11:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:05~0:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:20~0:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:35~0:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:45~1:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:10~1:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:25~1:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:50~2:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:10~0:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:30~0:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:55~1:05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:10~1:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:35~2:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:20~2:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:40~3:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:30~3:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:45~4:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:10~4:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:00~5:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:10~5:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:10~0:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:40~0:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:55~1:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:30~1:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:40~1:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:50~2:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:35~2:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:55~3:05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:20~3:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:35~3:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:50~3:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:10~4:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:45~4:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:05~5:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:15~5:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:30~5:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:15~6:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:45~6:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:55~7:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:50~1:05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:40~2:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:25~2:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:50~3:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:10~4:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:35~5:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:00~6:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:40~7:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:05~7:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:15~8:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:45~9:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:20~9:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:50~10:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:20~10:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:55~11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:05~13:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:05~14:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00~15:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:40~16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:05~16:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:55~19:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:45~20:05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,7 +846,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -410,6 +871,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -426,6 +890,2221 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>489313</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>173152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="3857625"/>
+          <a:ext cx="4813663" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>P</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>470263</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801600" y="3838575"/>
+          <a:ext cx="2756263" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>489313</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>173152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="3857625"/>
+          <a:ext cx="4813663" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>P</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>470263</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801600" y="3838575"/>
+          <a:ext cx="2756263" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>489313</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>173152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="3857625"/>
+          <a:ext cx="4813663" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>P</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>470263</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801600" y="3838575"/>
+          <a:ext cx="2756263" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>489313</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>173152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="3857625"/>
+          <a:ext cx="4813663" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>P</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>470263</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801600" y="3838575"/>
+          <a:ext cx="2756263" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>489313</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>173152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="3857625"/>
+          <a:ext cx="4813663" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>P</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>470263</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801600" y="3838575"/>
+          <a:ext cx="2756263" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -693,8 +3372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1224,4 +3903,4942 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AL2" s="8"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>109</v>
+      </c>
+      <c r="T3" t="s">
+        <v>111</v>
+      </c>
+      <c r="W3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T5" t="s">
+        <v>86</v>
+      </c>
+      <c r="W5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>88</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s">
+        <v>88</v>
+      </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>90</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s">
+        <v>90</v>
+      </c>
+      <c r="U7">
+        <v>4</v>
+      </c>
+      <c r="W7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>92</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="W8" t="s">
+        <v>92</v>
+      </c>
+      <c r="X8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>94</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s">
+        <v>94</v>
+      </c>
+      <c r="U9">
+        <v>4</v>
+      </c>
+      <c r="W9" t="s">
+        <v>94</v>
+      </c>
+      <c r="X9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>18</v>
+      </c>
+      <c r="L10">
+        <v>18</v>
+      </c>
+      <c r="O10">
+        <v>19</v>
+      </c>
+      <c r="R10">
+        <v>17</v>
+      </c>
+      <c r="U10">
+        <v>18</v>
+      </c>
+      <c r="X10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>83</v>
+      </c>
+      <c r="T11" t="s">
+        <v>83</v>
+      </c>
+      <c r="W11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>97</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>97</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s">
+        <v>97</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="W12" t="s">
+        <v>97</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s">
+        <v>98</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="W13" t="s">
+        <v>98</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>99</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>99</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s">
+        <v>99</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="W14" t="s">
+        <v>99</v>
+      </c>
+      <c r="X14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>100</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>100</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s">
+        <v>100</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="W15" t="s">
+        <v>100</v>
+      </c>
+      <c r="X15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <v>9</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+      <c r="R16">
+        <v>10</v>
+      </c>
+      <c r="U16">
+        <v>7</v>
+      </c>
+      <c r="X16">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL16"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="W2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AL2" s="8"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>121</v>
+      </c>
+      <c r="T3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>88</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s">
+        <v>88</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>90</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s">
+        <v>90</v>
+      </c>
+      <c r="U7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>92</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>94</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s">
+        <v>94</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="L10">
+        <v>17</v>
+      </c>
+      <c r="O10">
+        <v>19</v>
+      </c>
+      <c r="R10">
+        <v>16</v>
+      </c>
+      <c r="U10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>83</v>
+      </c>
+      <c r="T11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="K12" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>97</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>97</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s">
+        <v>97</v>
+      </c>
+      <c r="U12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="K13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s">
+        <v>98</v>
+      </c>
+      <c r="U13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>99</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>99</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s">
+        <v>99</v>
+      </c>
+      <c r="U14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>100</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>100</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s">
+        <v>100</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>14</v>
+      </c>
+      <c r="L16">
+        <v>16</v>
+      </c>
+      <c r="O16">
+        <v>15</v>
+      </c>
+      <c r="R16">
+        <v>14</v>
+      </c>
+      <c r="U16">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AR2" s="8"/>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>131</v>
+      </c>
+      <c r="T3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T5" t="s">
+        <v>86</v>
+      </c>
+      <c r="W5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>88</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s">
+        <v>88</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6">
+        <v>4</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA6">
+        <v>4</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD6">
+        <v>4</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG6">
+        <v>5</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>90</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s">
+        <v>90</v>
+      </c>
+      <c r="U7">
+        <v>4</v>
+      </c>
+      <c r="W7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA7">
+        <v>4</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD7">
+        <v>3</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG7">
+        <v>5</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>92</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="W8" t="s">
+        <v>92</v>
+      </c>
+      <c r="X8">
+        <v>4</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA8">
+        <v>3</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD8">
+        <v>4</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG8">
+        <v>4</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>94</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s">
+        <v>94</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="W9" t="s">
+        <v>94</v>
+      </c>
+      <c r="X9">
+        <v>4</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA9">
+        <v>4</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD9">
+        <v>4</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG9">
+        <v>4</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <v>17</v>
+      </c>
+      <c r="L10">
+        <v>18</v>
+      </c>
+      <c r="O10">
+        <v>16</v>
+      </c>
+      <c r="R10">
+        <v>10</v>
+      </c>
+      <c r="U10">
+        <v>17</v>
+      </c>
+      <c r="X10">
+        <v>15</v>
+      </c>
+      <c r="AA10">
+        <v>15</v>
+      </c>
+      <c r="AD10">
+        <v>15</v>
+      </c>
+      <c r="AG10">
+        <v>18</v>
+      </c>
+      <c r="AJ10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>83</v>
+      </c>
+      <c r="T11" t="s">
+        <v>83</v>
+      </c>
+      <c r="W11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>97</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>97</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s">
+        <v>97</v>
+      </c>
+      <c r="U12">
+        <v>4</v>
+      </c>
+      <c r="W12" t="s">
+        <v>97</v>
+      </c>
+      <c r="X12">
+        <v>5</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA12">
+        <v>5</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD12">
+        <v>5</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG12">
+        <v>4</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="K13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s">
+        <v>98</v>
+      </c>
+      <c r="U13">
+        <v>5</v>
+      </c>
+      <c r="W13" t="s">
+        <v>98</v>
+      </c>
+      <c r="X13">
+        <v>5</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA13">
+        <v>5</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD13">
+        <v>5</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG13">
+        <v>5</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>99</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>99</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s">
+        <v>99</v>
+      </c>
+      <c r="U14">
+        <v>4</v>
+      </c>
+      <c r="W14" t="s">
+        <v>99</v>
+      </c>
+      <c r="X14">
+        <v>4</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA14">
+        <v>4</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD14">
+        <v>3</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG14">
+        <v>4</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>100</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>100</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s">
+        <v>100</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="W15" t="s">
+        <v>100</v>
+      </c>
+      <c r="X15">
+        <v>2</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA15">
+        <v>4</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD15">
+        <v>2</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG15">
+        <v>2</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <v>14</v>
+      </c>
+      <c r="L16">
+        <v>17</v>
+      </c>
+      <c r="O16">
+        <v>15</v>
+      </c>
+      <c r="R16">
+        <v>16</v>
+      </c>
+      <c r="U16">
+        <v>15</v>
+      </c>
+      <c r="X16">
+        <v>16</v>
+      </c>
+      <c r="AA16">
+        <v>18</v>
+      </c>
+      <c r="AD16">
+        <v>15</v>
+      </c>
+      <c r="AG16">
+        <v>15</v>
+      </c>
+      <c r="AJ16">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BP16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="AR2" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU2" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="BA2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD2" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="BG2" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="BJ2" s="8"/>
+      <c r="BM2" s="8"/>
+      <c r="BP2" s="8"/>
+    </row>
+    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>144</v>
+      </c>
+      <c r="N3" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>131</v>
+      </c>
+      <c r="T3" t="s">
+        <v>149</v>
+      </c>
+      <c r="W3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>165</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T5" t="s">
+        <v>86</v>
+      </c>
+      <c r="W5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>88</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s">
+        <v>88</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6">
+        <v>3</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA6">
+        <v>3</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD6">
+        <v>3</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG6">
+        <v>3</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ6">
+        <v>3</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM6">
+        <v>3</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP6">
+        <v>4</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS6">
+        <v>4</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV6">
+        <v>4</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY6">
+        <v>3</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB6">
+        <v>3</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE6">
+        <v>3</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>88</v>
+      </c>
+      <c r="BH6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>90</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s">
+        <v>90</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="W7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA7">
+        <v>3</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD7">
+        <v>2</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ7">
+        <v>2</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM7">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP7">
+        <v>4</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS7">
+        <v>5</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV7">
+        <v>4</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY7">
+        <v>3</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>90</v>
+      </c>
+      <c r="BB7">
+        <v>2</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>90</v>
+      </c>
+      <c r="BE7">
+        <v>1</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>90</v>
+      </c>
+      <c r="BH7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>92</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="W8" t="s">
+        <v>92</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA8">
+        <v>5</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD8">
+        <v>2</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG8">
+        <v>2</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ8">
+        <v>2</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM8">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP8">
+        <v>4</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS8">
+        <v>5</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV8">
+        <v>4</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY8">
+        <v>4</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB8">
+        <v>1</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>92</v>
+      </c>
+      <c r="BE8">
+        <v>2</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>94</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s">
+        <v>94</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="W9" t="s">
+        <v>94</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA9">
+        <v>4</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD9">
+        <v>2</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG9">
+        <v>2</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM9">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP9">
+        <v>4</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS9">
+        <v>4</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV9">
+        <v>5</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY9">
+        <v>5</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB9">
+        <v>2</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE9">
+        <v>2</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>17</v>
+      </c>
+      <c r="L10">
+        <v>16</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="R10">
+        <v>9</v>
+      </c>
+      <c r="U10">
+        <v>8</v>
+      </c>
+      <c r="X10">
+        <v>8</v>
+      </c>
+      <c r="AA10">
+        <v>15</v>
+      </c>
+      <c r="AD10">
+        <v>9</v>
+      </c>
+      <c r="AG10">
+        <v>8</v>
+      </c>
+      <c r="AJ10">
+        <v>8</v>
+      </c>
+      <c r="AM10">
+        <v>15</v>
+      </c>
+      <c r="AP10">
+        <v>16</v>
+      </c>
+      <c r="AS10">
+        <v>18</v>
+      </c>
+      <c r="AV10">
+        <v>17</v>
+      </c>
+      <c r="AY10">
+        <v>15</v>
+      </c>
+      <c r="BB10">
+        <v>8</v>
+      </c>
+      <c r="BE10">
+        <v>8</v>
+      </c>
+      <c r="BH10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>83</v>
+      </c>
+      <c r="T11" t="s">
+        <v>83</v>
+      </c>
+      <c r="W11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>97</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>97</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s">
+        <v>97</v>
+      </c>
+      <c r="U12">
+        <v>5</v>
+      </c>
+      <c r="W12" t="s">
+        <v>97</v>
+      </c>
+      <c r="X12">
+        <v>4</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA12">
+        <v>4</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD12">
+        <v>5</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ12">
+        <v>4</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM12">
+        <v>5</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP12">
+        <v>5</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS12">
+        <v>4</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV12">
+        <v>5</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY12">
+        <v>5</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB12">
+        <v>2</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE12">
+        <v>3</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="K13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s">
+        <v>98</v>
+      </c>
+      <c r="U13">
+        <v>4</v>
+      </c>
+      <c r="W13" t="s">
+        <v>98</v>
+      </c>
+      <c r="X13">
+        <v>5</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA13">
+        <v>5</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD13">
+        <v>4</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG13">
+        <v>3</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ13">
+        <v>5</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM13">
+        <v>4</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP13">
+        <v>4</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS13">
+        <v>5</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV13">
+        <v>5</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY13">
+        <v>4</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB13">
+        <v>2</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE13">
+        <v>5</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>99</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>99</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s">
+        <v>99</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="W14" t="s">
+        <v>99</v>
+      </c>
+      <c r="X14">
+        <v>2</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA14">
+        <v>3</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD14">
+        <v>3</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG14">
+        <v>3</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ14">
+        <v>4</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM14">
+        <v>3</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP14">
+        <v>3</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS14">
+        <v>4</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV14">
+        <v>3</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY14">
+        <v>4</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB14">
+        <v>3</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE14">
+        <v>3</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>100</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>100</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s">
+        <v>100</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="W15" t="s">
+        <v>100</v>
+      </c>
+      <c r="X15">
+        <v>3</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA15">
+        <v>4</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD15">
+        <v>2</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG15">
+        <v>3</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ15">
+        <v>3</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM15">
+        <v>3</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP15">
+        <v>3</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS15">
+        <v>3</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV15">
+        <v>3</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY15">
+        <v>2</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB15">
+        <v>2</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>100</v>
+      </c>
+      <c r="BE15">
+        <v>4</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>100</v>
+      </c>
+      <c r="BH15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>18</v>
+      </c>
+      <c r="I16">
+        <v>14</v>
+      </c>
+      <c r="L16">
+        <v>14</v>
+      </c>
+      <c r="O16">
+        <v>16</v>
+      </c>
+      <c r="R16">
+        <v>15</v>
+      </c>
+      <c r="U16">
+        <v>15</v>
+      </c>
+      <c r="X16">
+        <v>14</v>
+      </c>
+      <c r="AA16">
+        <v>16</v>
+      </c>
+      <c r="AD16">
+        <v>14</v>
+      </c>
+      <c r="AG16">
+        <v>10</v>
+      </c>
+      <c r="AJ16">
+        <v>16</v>
+      </c>
+      <c r="AM16">
+        <v>15</v>
+      </c>
+      <c r="AP16">
+        <v>15</v>
+      </c>
+      <c r="AS16">
+        <v>16</v>
+      </c>
+      <c r="AV16">
+        <v>16</v>
+      </c>
+      <c r="AY16">
+        <v>15</v>
+      </c>
+      <c r="BB16">
+        <v>9</v>
+      </c>
+      <c r="BE16">
+        <v>15</v>
+      </c>
+      <c r="BH16">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CH16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR2" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU2" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="BA2" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD2" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="BJ2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="BM2" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="BP2" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS2" s="8"/>
+      <c r="BV2" s="8"/>
+      <c r="BY2" s="8"/>
+      <c r="CB2" s="8"/>
+      <c r="CE2" s="8"/>
+      <c r="CH2" s="8"/>
+    </row>
+    <row r="3" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" t="s">
+        <v>174</v>
+      </c>
+      <c r="W3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>190</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T5" t="s">
+        <v>86</v>
+      </c>
+      <c r="W5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>88</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s">
+        <v>88</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6">
+        <v>3</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA6">
+        <v>3</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD6">
+        <v>4</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG6">
+        <v>4</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ6">
+        <v>4</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM6">
+        <v>3</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP6">
+        <v>5</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS6">
+        <v>3</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY6">
+        <v>3</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB6">
+        <v>4</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE6">
+        <v>3</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>88</v>
+      </c>
+      <c r="BH6">
+        <v>4</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>88</v>
+      </c>
+      <c r="BK6">
+        <v>4</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>88</v>
+      </c>
+      <c r="BN6">
+        <v>4</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>88</v>
+      </c>
+      <c r="BQ6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>90</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s">
+        <v>90</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="W7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA7">
+        <v>2</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD7">
+        <v>4</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG7">
+        <v>5</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ7">
+        <v>3</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM7">
+        <v>2</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP7">
+        <v>4</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS7">
+        <v>2</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY7">
+        <v>2</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>90</v>
+      </c>
+      <c r="BB7">
+        <v>4</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>90</v>
+      </c>
+      <c r="BE7">
+        <v>3</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>90</v>
+      </c>
+      <c r="BH7">
+        <v>3</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK7">
+        <v>5</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN7">
+        <v>5</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>90</v>
+      </c>
+      <c r="BQ7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>92</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U8">
+        <v>3</v>
+      </c>
+      <c r="W8" t="s">
+        <v>92</v>
+      </c>
+      <c r="X8">
+        <v>3</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA8">
+        <v>3</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD8">
+        <v>5</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG8">
+        <v>4</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ8">
+        <v>4</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM8">
+        <v>2</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP8">
+        <v>4</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS8">
+        <v>3</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY8">
+        <v>2</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB8">
+        <v>5</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>92</v>
+      </c>
+      <c r="BE8">
+        <v>2</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH8">
+        <v>4</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK8">
+        <v>4</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN8">
+        <v>4</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>94</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s">
+        <v>94</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="W9" t="s">
+        <v>94</v>
+      </c>
+      <c r="X9">
+        <v>2</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA9">
+        <v>2</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD9">
+        <v>4</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG9">
+        <v>4</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ9">
+        <v>4</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM9">
+        <v>2</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP9">
+        <v>5</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS9">
+        <v>2</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY9">
+        <v>2</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB9">
+        <v>4</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE9">
+        <v>2</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH9">
+        <v>4</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BK9">
+        <v>4</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BN9">
+        <v>4</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <v>17</v>
+      </c>
+      <c r="L10">
+        <v>18</v>
+      </c>
+      <c r="O10">
+        <v>16</v>
+      </c>
+      <c r="R10">
+        <v>16</v>
+      </c>
+      <c r="U10">
+        <v>10</v>
+      </c>
+      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="AA10">
+        <v>10</v>
+      </c>
+      <c r="AD10">
+        <v>17</v>
+      </c>
+      <c r="AG10">
+        <v>17</v>
+      </c>
+      <c r="AJ10">
+        <v>15</v>
+      </c>
+      <c r="AM10">
+        <v>9</v>
+      </c>
+      <c r="AP10">
+        <v>18</v>
+      </c>
+      <c r="AS10">
+        <v>10</v>
+      </c>
+      <c r="AY10">
+        <v>9</v>
+      </c>
+      <c r="BB10">
+        <v>17</v>
+      </c>
+      <c r="BE10">
+        <v>10</v>
+      </c>
+      <c r="BH10">
+        <v>15</v>
+      </c>
+      <c r="BK10">
+        <v>17</v>
+      </c>
+      <c r="BN10">
+        <v>17</v>
+      </c>
+      <c r="BQ10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>83</v>
+      </c>
+      <c r="T11" t="s">
+        <v>83</v>
+      </c>
+      <c r="W11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>97</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>97</v>
+      </c>
+      <c r="R12">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s">
+        <v>97</v>
+      </c>
+      <c r="U12">
+        <v>4</v>
+      </c>
+      <c r="W12" t="s">
+        <v>97</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA12">
+        <v>2</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD12">
+        <v>3</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG12">
+        <v>2</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ12">
+        <v>4</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM12">
+        <v>3</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS12">
+        <v>3</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY12">
+        <v>1</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB12">
+        <v>1</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE12">
+        <v>3</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH12">
+        <v>2</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK12">
+        <v>1</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN12">
+        <v>4</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s">
+        <v>98</v>
+      </c>
+      <c r="U13">
+        <v>5</v>
+      </c>
+      <c r="W13" t="s">
+        <v>98</v>
+      </c>
+      <c r="X13">
+        <v>2</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA13">
+        <v>2</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD13">
+        <v>2</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ13">
+        <v>3</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM13">
+        <v>2</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP13">
+        <v>2</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS13">
+        <v>3</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY13">
+        <v>2</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB13">
+        <v>1</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE13">
+        <v>5</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH13">
+        <v>2</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK13">
+        <v>2</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>98</v>
+      </c>
+      <c r="BN13">
+        <v>4</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>99</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>99</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s">
+        <v>99</v>
+      </c>
+      <c r="U14">
+        <v>4</v>
+      </c>
+      <c r="W14" t="s">
+        <v>99</v>
+      </c>
+      <c r="X14">
+        <v>2</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA14">
+        <v>2</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD14">
+        <v>2</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG14">
+        <v>2</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ14">
+        <v>3</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM14">
+        <v>2</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP14">
+        <v>3</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS14">
+        <v>4</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY14">
+        <v>3</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB14">
+        <v>2</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE14">
+        <v>4</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH14">
+        <v>2</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK14">
+        <v>3</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN14">
+        <v>3</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>100</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>100</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s">
+        <v>100</v>
+      </c>
+      <c r="U15">
+        <v>4</v>
+      </c>
+      <c r="W15" t="s">
+        <v>100</v>
+      </c>
+      <c r="X15">
+        <v>2</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA15">
+        <v>3</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD15">
+        <v>2</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG15">
+        <v>2</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ15">
+        <v>4</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM15">
+        <v>2</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP15">
+        <v>2</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS15">
+        <v>4</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY15">
+        <v>2</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB15">
+        <v>2</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>100</v>
+      </c>
+      <c r="BE15">
+        <v>3</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>100</v>
+      </c>
+      <c r="BH15">
+        <v>3</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>100</v>
+      </c>
+      <c r="BK15">
+        <v>3</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>100</v>
+      </c>
+      <c r="BN15">
+        <v>3</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>100</v>
+      </c>
+      <c r="BQ15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="R16">
+        <v>16</v>
+      </c>
+      <c r="U16">
+        <v>17</v>
+      </c>
+      <c r="X16">
+        <v>8</v>
+      </c>
+      <c r="AA16">
+        <v>9</v>
+      </c>
+      <c r="AD16">
+        <v>9</v>
+      </c>
+      <c r="AG16">
+        <v>7</v>
+      </c>
+      <c r="AJ16">
+        <v>14</v>
+      </c>
+      <c r="AM16">
+        <v>9</v>
+      </c>
+      <c r="AP16">
+        <v>8</v>
+      </c>
+      <c r="AS16">
+        <v>14</v>
+      </c>
+      <c r="AY16">
+        <v>8</v>
+      </c>
+      <c r="BB16">
+        <v>6</v>
+      </c>
+      <c r="BE16">
+        <v>15</v>
+      </c>
+      <c r="BH16">
+        <v>9</v>
+      </c>
+      <c r="BK16">
+        <v>9</v>
+      </c>
+      <c r="BN16">
+        <v>14</v>
+      </c>
+      <c r="BQ16">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>